--- a/aircraft/reports/top-airlines-over-time-monthly.xlsx
+++ b/aircraft/reports/top-airlines-over-time-monthly.xlsx
@@ -10968,7 +10968,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="B659" s="2" t="n">
         <v>45870</v>
@@ -10979,12 +10979,12 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="B660" s="2" t="n">
         <v>45870</v>
@@ -11000,7 +11000,7 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="B661" s="2" t="n">
         <v>45870</v>
@@ -11016,7 +11016,7 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="B662" s="2" t="n">
         <v>45870</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3506</v>
+        <v>3508</v>
       </c>
       <c r="B663" s="2" t="n">
         <v>45870</v>
@@ -11048,7 +11048,7 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3514</v>
+        <v>3516</v>
       </c>
       <c r="B664" s="2" t="n">
         <v>45870</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3524</v>
+        <v>3526</v>
       </c>
       <c r="B665" s="2" t="n">
         <v>45870</v>
@@ -11080,7 +11080,7 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3535</v>
+        <v>3538</v>
       </c>
       <c r="B666" s="2" t="n">
         <v>45870</v>
